--- a/mSPAGHETI_results_log_2014.xlsx
+++ b/mSPAGHETI_results_log_2014.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-36280" yWindow="4540" windowWidth="29600" windowHeight="20340" tabRatio="500"/>
+    <workbookView xWindow="-37020" yWindow="560" windowWidth="29600" windowHeight="20400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>plt_scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,91 +145,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>coadd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>um</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arcsec/pix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grat_period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obs_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ang_adj_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Author:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Date:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Desc:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mSPAGHETI log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">output </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>modeling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coadd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>um</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arcsec/pix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grat_period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obs_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ang_adj_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Author:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Date:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Desc:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mSPAGHETI log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">output </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_x</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/5/6/7/983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,27 +327,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,7 +349,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,15 +681,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
@@ -705,15 +715,15 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>40190</v>
@@ -721,234 +731,617 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="W7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Y7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Z7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AA7" s="8" t="s">
+      <c r="AA7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="7" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="W8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="1">
+        <v>30.132000000000001</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="R9" s="1">
+        <v>321.11200000000002</v>
+      </c>
+      <c r="S9" s="1">
+        <v>20.123000000000001</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="1">
+        <v>25.123000000000001</v>
+      </c>
+      <c r="V9" s="1">
+        <v>95</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.123</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.4320999999999999</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1353,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
